--- a/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
+++ b/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004351</t>
+          <t>160642</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160642</t>
+          <t>004351</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
+          <t>汇丰晋信珠三角区域发展混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.56</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160642</t>
+          <t>002291</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
+          <t>诺安安鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79.78</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002291</t>
+          <t>160642</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安安鑫灵活配置混合</t>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>9.62</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
+++ b/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
+++ b/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6290</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
+++ b/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
+++ b/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.17</v>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8070</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.72</v>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7</v>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1479,13 +1566,683 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0862</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
+++ b/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2141,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2152,17 +2153,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2172,14 +2193,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.85</v>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8362</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2188,14 +2231,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.17</v>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3830</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2204,14 +2269,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.72</v>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3004</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2220,14 +2307,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7</v>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -2236,13 +2345,927 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1079</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>57.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>56.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001334</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>45.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证现代物流交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001503</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>22.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>33.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>57.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
+++ b/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3148,7 +3149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3159,17 +3160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.1</v>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8870</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3195,14 +3238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.85</v>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4905</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3211,14 +3276,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.17</v>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3227,14 +3314,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.72</v>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3243,14 +3352,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7</v>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3259,13 +3390,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.22</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
+++ b/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>2.43</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>3.1</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>1.17</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.72</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -600,6 +617,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8410</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4338</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3106</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013200</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001692</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方国策动力股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>516530</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516910</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证现代物流ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013201</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方均衡优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>40.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2117,7 +2722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2857,7 +3462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3369,7 +3974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3501,7 +4106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3671,7 +4276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
+++ b/数据整理/stocks/A股/上证主板/600057-厦门象屿.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>2.09</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.43</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>3.1</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>1.17</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.72</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -616,7 +633,1143 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>070027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实周期优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8965</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8653</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7339</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2189</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1399</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001181</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方改革机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>202213</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方核心竞争混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014556</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014557</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富荣量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>61.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1204,7 +2357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1716,7 +2869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2722,7 +3875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3462,7 +4615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3974,7 +5127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4106,7 +5259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4274,136 +5427,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160642</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华增瑞灵活配置混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1807</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004351</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0389</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>